--- a/opera_code.xlsx
+++ b/opera_code.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-1820" yWindow="0" windowWidth="25360" windowHeight="14280" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="272">
   <si>
     <t>out of orders reasons</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -294,6 +294,818 @@
   </si>
   <si>
     <t>wooden floor broken</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>room maintenance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>balcony lamp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BFL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>balcony floor lamp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bed lamp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dinner lamp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DLA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desk lamp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DRL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dressing lamp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>floor lamp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LRCL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>living room ceiling lamp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LRL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>living room lamp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NLIWR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>night lamp in the washing room</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pool lamp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>toilet lamp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WRCL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>washing room ceiling lamp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WRL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>washing room lamp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BBW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bathroom basin water浴室面盘水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bathtub water</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MIST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>misting system</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MTW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>male toilet water</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pool water</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shower water</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>toilet basin water马桶水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>toilet water</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bathroom airing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BAH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bedroom aircondition/heat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LRAH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>living room aircondition/heat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>toilet airing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BATHCB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bathroom controller board</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BATHS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bathroom scales</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BBRDVD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bedroom blue ray dvd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BEDC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bedroom clock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B&amp;O 音箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BTV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bedroom TV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coffee machine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CURT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>curtains rails</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRIDGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fridge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hair dryer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KETTLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kettle  热水壶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIRC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>living room clock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LRBRDVD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>living room blueray DVD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LRTV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>living room tv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MASSC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>massage chair</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MINIBAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minibar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAFE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>safebox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SONOS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sonos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>toilet controller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VERT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vertical blinds in room or corridor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WPH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wireless phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BBTD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>between bathroom&amp; toilet door</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BDHIOMD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BDH inf of MD阳台门把手 正对大门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BDIMD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>balcony door in front of MD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>balcony other door</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BODH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>balcony other door handle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BSD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bedroom sliding door</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DBB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>door between balconies</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dressing sliding door</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LRW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>living room window</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>main door</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MDH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>main door handle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MDL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>main door locks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>other windows</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>toilet sliding door</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BAC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bathroom chair</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BALA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>balcony armchair</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BALC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>balcony chair</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BALCU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>balcony cupboard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BALS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>balcony sofa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BALSU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>balcony suitcase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BALT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>balcony tables</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bedroom carpet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BEC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bedroom cupboard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BFM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bathroom fixed mirror</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BMM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bathroom mobile mirror</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bookshelves</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bed side table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHODD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>candle holder on dinner desk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dinner chair</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desk chair</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DESK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dinner table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kitchen storage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIVC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>living room cpuboard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LRAC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>living room arm chair</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LRB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>living room bench</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LRC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>living room carpet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LRCT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>living room coffee table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LRM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>living room mirror</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LRS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>living room sofa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PIC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pictures &amp; paintings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sofa side table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUTPW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>suitcase under typerwritter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUTV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>suitcase under tv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>toilet mirror</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TPW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>typewritter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OTH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>other</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>housekeeping sections</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16F B terrace room section 1630-1642</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16F A terrace room section 1610-1622</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16F A single room section 1601-16C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16F B terrace room section 1623-16G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17F A section 1709-1717</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17F B section 1718-1726</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17F A+B section 1701-17I</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -671,10 +1483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
+      <selection activeCell="C144" sqref="C144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -935,7 +1747,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="2:3">
+    <row r="33" spans="1:3">
       <c r="B33" t="s">
         <v>63</v>
       </c>
@@ -943,7 +1755,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="2:3">
+    <row r="34" spans="1:3">
       <c r="B34" t="s">
         <v>65</v>
       </c>
@@ -951,12 +1763,859 @@
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="2:3">
+    <row r="35" spans="1:3">
       <c r="B35" t="s">
         <v>67</v>
       </c>
       <c r="C35" t="s">
         <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="B38" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="B39" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="B40" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="B41" t="s">
+        <v>76</v>
+      </c>
+      <c r="C41" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="B42" t="s">
+        <v>78</v>
+      </c>
+      <c r="C42" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="B43" t="s">
+        <v>80</v>
+      </c>
+      <c r="C43" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="B44" t="s">
+        <v>82</v>
+      </c>
+      <c r="C44" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="B45" t="s">
+        <v>84</v>
+      </c>
+      <c r="C45" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="B46" t="s">
+        <v>86</v>
+      </c>
+      <c r="C46" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="B47" t="s">
+        <v>88</v>
+      </c>
+      <c r="C47" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="B48" t="s">
+        <v>90</v>
+      </c>
+      <c r="C48" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3">
+      <c r="B49" t="s">
+        <v>92</v>
+      </c>
+      <c r="C49" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3">
+      <c r="B50" t="s">
+        <v>94</v>
+      </c>
+      <c r="C50" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3">
+      <c r="B51" t="s">
+        <v>96</v>
+      </c>
+      <c r="C51" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3">
+      <c r="B52" t="s">
+        <v>98</v>
+      </c>
+      <c r="C52" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3">
+      <c r="B53" t="s">
+        <v>100</v>
+      </c>
+      <c r="C53" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3">
+      <c r="B54" t="s">
+        <v>102</v>
+      </c>
+      <c r="C54" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3">
+      <c r="B55" t="s">
+        <v>104</v>
+      </c>
+      <c r="C55" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3">
+      <c r="B56" t="s">
+        <v>106</v>
+      </c>
+      <c r="C56" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3">
+      <c r="B57" t="s">
+        <v>108</v>
+      </c>
+      <c r="C57" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3">
+      <c r="B58" t="s">
+        <v>110</v>
+      </c>
+      <c r="C58" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3">
+      <c r="B59" t="s">
+        <v>112</v>
+      </c>
+      <c r="C59" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3">
+      <c r="B60" t="s">
+        <v>114</v>
+      </c>
+      <c r="C60" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3">
+      <c r="B61" t="s">
+        <v>116</v>
+      </c>
+      <c r="C61" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3">
+      <c r="B62" t="s">
+        <v>118</v>
+      </c>
+      <c r="C62" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3">
+      <c r="B63" t="s">
+        <v>120</v>
+      </c>
+      <c r="C63" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3">
+      <c r="B64" t="s">
+        <v>122</v>
+      </c>
+      <c r="C64" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3">
+      <c r="B65" t="s">
+        <v>124</v>
+      </c>
+      <c r="C65" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3">
+      <c r="B66" t="s">
+        <v>126</v>
+      </c>
+      <c r="C66" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3">
+      <c r="B67" t="s">
+        <v>128</v>
+      </c>
+      <c r="C67" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3">
+      <c r="B68" t="s">
+        <v>130</v>
+      </c>
+      <c r="C68" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3">
+      <c r="B69" t="s">
+        <v>132</v>
+      </c>
+      <c r="C69" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3">
+      <c r="B70" t="s">
+        <v>134</v>
+      </c>
+      <c r="C70" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3">
+      <c r="B71" t="s">
+        <v>136</v>
+      </c>
+      <c r="C71" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3">
+      <c r="B72" t="s">
+        <v>138</v>
+      </c>
+      <c r="C72" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3">
+      <c r="B73" t="s">
+        <v>140</v>
+      </c>
+      <c r="C73" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3">
+      <c r="B74" t="s">
+        <v>142</v>
+      </c>
+      <c r="C74" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3">
+      <c r="B75" t="s">
+        <v>144</v>
+      </c>
+      <c r="C75" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3">
+      <c r="B76" t="s">
+        <v>146</v>
+      </c>
+      <c r="C76" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3">
+      <c r="B77" t="s">
+        <v>148</v>
+      </c>
+      <c r="C77" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3">
+      <c r="B78" t="s">
+        <v>150</v>
+      </c>
+      <c r="C78" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3">
+      <c r="B79" t="s">
+        <v>152</v>
+      </c>
+      <c r="C79" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3">
+      <c r="B80" t="s">
+        <v>154</v>
+      </c>
+      <c r="C80" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3">
+      <c r="B81" t="s">
+        <v>156</v>
+      </c>
+      <c r="C81" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3">
+      <c r="B82" t="s">
+        <v>158</v>
+      </c>
+      <c r="C82" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3">
+      <c r="B83" t="s">
+        <v>160</v>
+      </c>
+      <c r="C83" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3">
+      <c r="B84" t="s">
+        <v>162</v>
+      </c>
+      <c r="C84" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3">
+      <c r="B85" t="s">
+        <v>164</v>
+      </c>
+      <c r="C85" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3">
+      <c r="B86" t="s">
+        <v>166</v>
+      </c>
+      <c r="C86" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3">
+      <c r="B87" t="s">
+        <v>168</v>
+      </c>
+      <c r="C87" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3">
+      <c r="B88" t="s">
+        <v>170</v>
+      </c>
+      <c r="C88" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3">
+      <c r="B89" t="s">
+        <v>172</v>
+      </c>
+      <c r="C89" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3">
+      <c r="B90" t="s">
+        <v>174</v>
+      </c>
+      <c r="C90" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3">
+      <c r="B91" t="s">
+        <v>176</v>
+      </c>
+      <c r="C91" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3">
+      <c r="B92" t="s">
+        <v>178</v>
+      </c>
+      <c r="C92" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3">
+      <c r="B93" t="s">
+        <v>180</v>
+      </c>
+      <c r="C93" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3">
+      <c r="B94" t="s">
+        <v>182</v>
+      </c>
+      <c r="C94" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3">
+      <c r="B95" t="s">
+        <v>184</v>
+      </c>
+      <c r="C95" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3">
+      <c r="B96" t="s">
+        <v>186</v>
+      </c>
+      <c r="C96" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3">
+      <c r="B97" t="s">
+        <v>188</v>
+      </c>
+      <c r="C97" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3">
+      <c r="B98" t="s">
+        <v>190</v>
+      </c>
+      <c r="C98" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3">
+      <c r="B99" t="s">
+        <v>192</v>
+      </c>
+      <c r="C99" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3">
+      <c r="B100" t="s">
+        <v>194</v>
+      </c>
+      <c r="C100" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3">
+      <c r="B101" t="s">
+        <v>196</v>
+      </c>
+      <c r="C101" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3">
+      <c r="B102" t="s">
+        <v>198</v>
+      </c>
+      <c r="C102" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3">
+      <c r="B103" t="s">
+        <v>200</v>
+      </c>
+      <c r="C103" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3">
+      <c r="B104" t="s">
+        <v>202</v>
+      </c>
+      <c r="C104" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3">
+      <c r="B105" t="s">
+        <v>204</v>
+      </c>
+      <c r="C105" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3">
+      <c r="B106" t="s">
+        <v>206</v>
+      </c>
+      <c r="C106" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3">
+      <c r="B107" t="s">
+        <v>208</v>
+      </c>
+      <c r="C107" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3">
+      <c r="B108" t="s">
+        <v>210</v>
+      </c>
+      <c r="C108" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3">
+      <c r="B109" t="s">
+        <v>212</v>
+      </c>
+      <c r="C109" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3">
+      <c r="B110" t="s">
+        <v>214</v>
+      </c>
+      <c r="C110" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3">
+      <c r="B111" t="s">
+        <v>216</v>
+      </c>
+      <c r="C111" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3">
+      <c r="B112" t="s">
+        <v>218</v>
+      </c>
+      <c r="C112" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3">
+      <c r="B113" t="s">
+        <v>220</v>
+      </c>
+      <c r="C113" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3">
+      <c r="B114" t="s">
+        <v>222</v>
+      </c>
+      <c r="C114" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="115" spans="2:3">
+      <c r="B115" t="s">
+        <v>224</v>
+      </c>
+      <c r="C115" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="116" spans="2:3">
+      <c r="B116" t="s">
+        <v>226</v>
+      </c>
+      <c r="C116" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="117" spans="2:3">
+      <c r="B117" t="s">
+        <v>228</v>
+      </c>
+      <c r="C117" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="118" spans="2:3">
+      <c r="B118" t="s">
+        <v>230</v>
+      </c>
+      <c r="C118" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="119" spans="2:3">
+      <c r="B119" t="s">
+        <v>232</v>
+      </c>
+      <c r="C119" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="120" spans="2:3">
+      <c r="B120" t="s">
+        <v>234</v>
+      </c>
+      <c r="C120" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="121" spans="2:3">
+      <c r="B121" t="s">
+        <v>236</v>
+      </c>
+      <c r="C121" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="122" spans="2:3">
+      <c r="B122" t="s">
+        <v>238</v>
+      </c>
+      <c r="C122" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="123" spans="2:3">
+      <c r="B123" t="s">
+        <v>240</v>
+      </c>
+      <c r="C123" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="124" spans="2:3">
+      <c r="B124" t="s">
+        <v>242</v>
+      </c>
+      <c r="C124" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="125" spans="2:3">
+      <c r="B125" t="s">
+        <v>244</v>
+      </c>
+      <c r="C125" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="126" spans="2:3">
+      <c r="B126" t="s">
+        <v>246</v>
+      </c>
+      <c r="C126" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="127" spans="2:3">
+      <c r="B127" t="s">
+        <v>248</v>
+      </c>
+      <c r="C127" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="128" spans="2:3">
+      <c r="B128" t="s">
+        <v>250</v>
+      </c>
+      <c r="C128" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="B129" t="s">
+        <v>252</v>
+      </c>
+      <c r="C129" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="B130" t="s">
+        <v>254</v>
+      </c>
+      <c r="C130" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="B131" t="s">
+        <v>256</v>
+      </c>
+      <c r="C131" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="B132" t="s">
+        <v>258</v>
+      </c>
+      <c r="C132" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="B133" t="s">
+        <v>260</v>
+      </c>
+      <c r="C133" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="B134" t="s">
+        <v>262</v>
+      </c>
+      <c r="C134" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="B137">
+        <v>161</v>
+      </c>
+      <c r="C137" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="B138">
+        <v>162</v>
+      </c>
+      <c r="C138" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="B139">
+        <v>163</v>
+      </c>
+      <c r="C139" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="B140">
+        <v>164</v>
+      </c>
+      <c r="C140" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="B141">
+        <v>171</v>
+      </c>
+      <c r="C141" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="B142">
+        <v>172</v>
+      </c>
+      <c r="C142" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="B143">
+        <v>173</v>
+      </c>
+      <c r="C143" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="B144">
+        <v>181</v>
       </c>
     </row>
   </sheetData>

--- a/opera_code.xlsx
+++ b/opera_code.xlsx
@@ -4,10 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14580" tabRatio="500"/>
+    <workbookView xWindow="12680" yWindow="1820" windowWidth="16480" windowHeight="10140" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="工作表2" sheetId="2" r:id="rId2"/>
+    <sheet name="user group permission" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="712">
   <si>
     <t>out of orders reasons</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1107,13 +1109,1724 @@
   <si>
     <t>17F A+B section 1701-17I</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hoursekeeping tasks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>general clean/deep clean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>check out room no terrace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>check out room with terrace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>check out suite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>housekeeping attendants</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reservation type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>checked in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>checked in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fit 6pm hold-check at 1800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arrival time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deduct扣减</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>credit card reduct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deposit required</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">address required </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone required</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FIT- GTD by deposit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FIT-GTD by credit card</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FIT-gtd by dep/vch/company</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>group- tentative</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>group-definite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allotment-non gtd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allotment-gtd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deposit rules</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deposit rule schedules</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>discount reasons</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PER GM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>per GM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PER EAM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>per EAM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PER DOSM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>per DOSM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PER COUNT.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>per countesy礼貌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PER CONTR.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PER PKG.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>per package</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PER SPE.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>per special arrangement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PER FOM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>per FOM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PER RVM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>per revenue manager</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PER OWNER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PER OTHERS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cancellation codes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHGHITI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guest change itinerary旅程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OTHTL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guest found cheaper hotel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DBLBKG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>double booking</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NATCAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>natural calamities</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APCLOS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>airport closed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOREAS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no reason given</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TSFRTO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>transfer to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TURNAWAY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>turn away-6pm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RENOV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>renovation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OTHERS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>others</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHRATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>find cheaper rate elsewhere for the same hotel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>origin codes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UAE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>austria</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>australia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>belgium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>canada</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>switzerland</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PEK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beijing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AHS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trace texts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>concierge: please arrange for thei guest the following:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>one extra breakfast  can be given to guest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>finance please read BEO - any comments or questions about billing instructions please see us immediately,thank you</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RSVN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RSVN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FO please check the following issues and feed back today. Please do not resolve trace befor these issues are clarified:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>check the following issues and feedback in logbook,please do not resolve trace before these issues are clarified:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attention： name change reservation was made under name: MR/s XXX but at check-in name changed to : MR/s yyy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RES:please check the following issues and feed back today. Please do not resolve trace before these issues are clarified:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>billing instructions: POA ALL - guest to settle total invoice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>room &amp; breakfast to travel agent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">billing instructions: room &amp; breakfast paid by comp / all extras POA </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">billing instructions: room &amp; breakfast to agent / extras POA </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the company /agent profile is incomplete please fill out  all information  today</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>there is no contact person add to the company/agent profile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alerts messege</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BULTER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>call bulter男管家 upon arrival.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CALL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>call…upon arrival / departure.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CALL BACK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>please inform guest to call…back</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CALL DM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>call duty manager upon arrival/ departure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CALL FOM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>call FOM upon arrival/ departure.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CALL GM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>call gm upon arrival/ departure arrival</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COLLECTION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>please inform guest to collect letter / parcel打包/ express mail at lobby upon arrival.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DNM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>do not move the room</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HONEY MOON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>congratulate for honey moon.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no deposit. Guaranteed by..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO DEPOSIT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAID BY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paid by</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAY FOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay for.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REMARK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>see remarks upon..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RETURN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>please inform guest to return. Upon departure.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIGN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>please remind guest to sign…upon departure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SWIPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>please swipe credit card upon departure.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>potential upsell.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP guests.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VOUCHER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>please collect voucher收据 upon arrival.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WELCCARD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>please remind GM to write a welcome card</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OTH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attention! Has transportation requested: arrival carrier code is not empty or departure carrier code is not empty.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>custom-guest status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>custom-guest type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>custom country entry point</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>custom purpose of stay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>custom immigration status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>room types</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GLU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>glux room</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No. of room</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pseudo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HSK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>send</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seq.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>glux room with king size bed 33sqm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DLK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deluxe king room</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>39.5sqm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DLT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deluxe twin room</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DKT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deluxe king with terrace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DTT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deluxe twin with terrace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GDK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grand deluxe king with terrace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GDT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grand deluxe twin with terrace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grand deluxe pool suite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">suite with terrace </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DPS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deluxe pool suite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SUITE </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>suite1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>twin bedroom suite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eclat miami suite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EPS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eclat presidential suite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CABIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cabin room</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HDCP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>handicap room</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CABPY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>for cabin room</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>posting folio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>posting master</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DPS-VI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deluxe pool suite-city view</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COCOON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cocoon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MONACO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monaco</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>room</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>room type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FO status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>floor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>feature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VAC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CV KB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reservation methods</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>block cancellation reasons</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>block lost reasons</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>block refused reasons</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>destination codes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status codes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHGITI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guest change itinerary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guest found cheaper hotel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OTHERS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>others</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item inventory setup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>housekeeping</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reception</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>preference group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PVG restaurant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>restaurant preference</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>profile interests</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INTERESTS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPECIALS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>specials</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IN-ROOM FEATURES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in-room requests</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLOOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>floor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROOM FEATURES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NEWPAPERS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NEWSPAPER PREFERED BY GUEST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMOKING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>smoking \smoking</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MINIBAR OPTIONS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minibar options</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TV OPTIONS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIDEO OPTIONS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEY OPTIONS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>options for keyboard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PHONE OPTION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>option for phone use</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>relationship maintenance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>from type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>from relation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">to type </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to relationship</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMPANY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRAVEL_AGENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C-MASTER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACCOUNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLIENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I-FAMILYHEAD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACCOUNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S-MASTER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T-MASTER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRANVEL_AGENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C-SUB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONTACT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IMPLANT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I-FAMILYMEMBER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S-SUB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T-SUB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>job titles</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AEH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FOM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GRO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RRM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assistant director of sales</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assistant excutive housekeeper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assistant housekeeper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chief butler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost control supervisor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>concierge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>duty manager</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>financial accountant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>financial controller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>financial manager</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>front office manager</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>floor supervisor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>general manager</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guest relationship officer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>housekeeping coordinator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>it manager</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>financial operation manager</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>project manager</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>revenue/reservations manager</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reservations supervisor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sales manager</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>senior sals manager</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>departements</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PMS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reservations</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>front office</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>operator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sales department</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eclat lounge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inroom dining</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>finance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>it department</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default department</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER GROUPS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BASIC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONCIERGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GROS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HKSUP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPERA SUPERVISOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RVM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>account receivable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>basic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>director of sales</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FO manager</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guest relation officer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gro supervisor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>housekeeping supervisor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>income auditor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>opera supervisor group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reservation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RV manager</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>application access control</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>END O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SFA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OXI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S$C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UTILI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OCIS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OXIHUB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OCM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORMS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OBI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCBI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>permission</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Activity Group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AR Group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AR Config Group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Back Office Group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blocks Group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cashiering Group</t>
+  </si>
+  <si>
+    <t>Cashiering Config Group</t>
+  </si>
+  <si>
+    <t>Catering Config Group</t>
+  </si>
+  <si>
+    <t>Channels Config Group</t>
+  </si>
+  <si>
+    <t>Commissions Group</t>
+  </si>
+  <si>
+    <t>Commissions Config Group</t>
+  </si>
+  <si>
+    <t>Comp Accounting Group</t>
+  </si>
+  <si>
+    <t>Comp Accounting Conf Group</t>
+  </si>
+  <si>
+    <t>Database Config Group</t>
+  </si>
+  <si>
+    <t>Datamart Group</t>
+  </si>
+  <si>
+    <t>End of Day Group</t>
+  </si>
+  <si>
+    <t>Event Group</t>
+  </si>
+  <si>
+    <t>Event Resource Group</t>
+  </si>
+  <si>
+    <t>Event Space Group</t>
+  </si>
+  <si>
+    <t>External Config Group</t>
+  </si>
+  <si>
+    <t>FIT Contracts Group</t>
+  </si>
+  <si>
+    <t>Front Desk Group</t>
+  </si>
+  <si>
+    <t>Gaming Group</t>
+  </si>
+  <si>
+    <t>General Group</t>
+  </si>
+  <si>
+    <t>IFC Group</t>
+  </si>
+  <si>
+    <t>Mailing Group</t>
+  </si>
+  <si>
+    <t>Memberships Group</t>
+  </si>
+  <si>
+    <t>Navigator Group</t>
+  </si>
+  <si>
+    <t>OBI Group</t>
+  </si>
+  <si>
+    <t>OCM Group</t>
+  </si>
+  <si>
+    <t>OXI Group</t>
+  </si>
+  <si>
+    <t>OVOS Accounts Group</t>
+  </si>
+  <si>
+    <t>OVOS Contract Group</t>
+  </si>
+  <si>
+    <t>OVOS Dashboard</t>
+  </si>
+  <si>
+    <t>OVOS General Group</t>
+  </si>
+  <si>
+    <t>OVOS Misc Group</t>
+  </si>
+  <si>
+    <t>OXIHUB Group</t>
+  </si>
+  <si>
+    <t>Palm Group</t>
+  </si>
+  <si>
+    <t>Potential Group</t>
+  </si>
+  <si>
+    <t>Preventative Maint Group</t>
+  </si>
+  <si>
+    <t>Profile Config Group</t>
+  </si>
+  <si>
+    <t>Profiles Group</t>
+  </si>
+  <si>
+    <t>Property Config Group</t>
+  </si>
+  <si>
+    <t>QMISC Group</t>
+  </si>
+  <si>
+    <t>Quality Mgmt Config</t>
+  </si>
+  <si>
+    <t>Quick Keys Group</t>
+  </si>
+  <si>
+    <t>Rate Mgmt Config</t>
+  </si>
+  <si>
+    <t>Reservations Group</t>
+  </si>
+  <si>
+    <t>Reservations Config Group</t>
+  </si>
+  <si>
+    <t>Revenue Management Group</t>
+  </si>
+  <si>
+    <t>Rooms Management Group</t>
+  </si>
+  <si>
+    <t>Setup Config Group</t>
+  </si>
+  <si>
+    <t>Utilities Group</t>
+  </si>
+  <si>
+    <t>VTM Group</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1124,6 +2837,24 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -1147,13 +2878,41 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="15">
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1483,15 +3242,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C144"/>
+  <dimension ref="A1:I325"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
-      <selection activeCell="C144" sqref="C144"/>
+    <sheetView topLeftCell="A304" workbookViewId="0">
+      <selection activeCell="E326" sqref="E326"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="7" width="55.6640625" customWidth="1"/>
+    <col min="3" max="3" width="55.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2618,9 +4381,2449 @@
         <v>181</v>
       </c>
     </row>
+    <row r="145" spans="1:9">
+      <c r="A145" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
+      <c r="A147" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
+      <c r="B148" t="s">
+        <v>273</v>
+      </c>
+      <c r="C148" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
+      <c r="B149" t="s">
+        <v>275</v>
+      </c>
+      <c r="C149" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
+      <c r="B150" t="s">
+        <v>277</v>
+      </c>
+      <c r="C150" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
+      <c r="B151" t="s">
+        <v>279</v>
+      </c>
+      <c r="C151" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
+      <c r="A153" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
+      <c r="B154" t="s">
+        <v>283</v>
+      </c>
+      <c r="C154" t="s">
+        <v>284</v>
+      </c>
+      <c r="D154" t="s">
+        <v>286</v>
+      </c>
+      <c r="E154" t="s">
+        <v>287</v>
+      </c>
+      <c r="F154" t="s">
+        <v>288</v>
+      </c>
+      <c r="G154" t="s">
+        <v>289</v>
+      </c>
+      <c r="H154" t="s">
+        <v>290</v>
+      </c>
+      <c r="I154" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
+      <c r="B155">
+        <v>1</v>
+      </c>
+      <c r="C155" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
+      <c r="B156">
+        <v>10</v>
+      </c>
+      <c r="C156" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
+      <c r="B157">
+        <v>2</v>
+      </c>
+      <c r="C157" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
+      <c r="B158">
+        <v>3</v>
+      </c>
+      <c r="C158" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
+      <c r="B159">
+        <v>4</v>
+      </c>
+      <c r="C159" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
+      <c r="B160">
+        <v>6</v>
+      </c>
+      <c r="C160" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="B161">
+        <v>8</v>
+      </c>
+      <c r="C161" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="B162">
+        <v>9</v>
+      </c>
+      <c r="C162" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="B169" t="s">
+        <v>302</v>
+      </c>
+      <c r="C169" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="B170" t="s">
+        <v>304</v>
+      </c>
+      <c r="C170" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="B171" t="s">
+        <v>306</v>
+      </c>
+      <c r="C171" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="B172" t="s">
+        <v>308</v>
+      </c>
+      <c r="C172" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="B173" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="B174" t="s">
+        <v>311</v>
+      </c>
+      <c r="C174" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="B175" t="s">
+        <v>313</v>
+      </c>
+      <c r="C175" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="B176" t="s">
+        <v>315</v>
+      </c>
+      <c r="C176" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="B177" t="s">
+        <v>317</v>
+      </c>
+      <c r="C177" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="B178" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="B179" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="B182" t="s">
+        <v>322</v>
+      </c>
+      <c r="C182" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="B183" t="s">
+        <v>324</v>
+      </c>
+      <c r="C183" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="B184" t="s">
+        <v>326</v>
+      </c>
+      <c r="C184" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="B185" t="s">
+        <v>328</v>
+      </c>
+      <c r="C185" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="B186" t="s">
+        <v>330</v>
+      </c>
+      <c r="C186" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="B187" t="s">
+        <v>332</v>
+      </c>
+      <c r="C187" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="B188" t="s">
+        <v>334</v>
+      </c>
+      <c r="C188" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="B189" t="s">
+        <v>336</v>
+      </c>
+      <c r="C189" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="B190" t="s">
+        <v>338</v>
+      </c>
+      <c r="C190" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="B191" t="s">
+        <v>340</v>
+      </c>
+      <c r="C191" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="B192" t="s">
+        <v>342</v>
+      </c>
+      <c r="C192" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="B195" t="s">
+        <v>345</v>
+      </c>
+      <c r="C195" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="B196" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="B197" t="s">
+        <v>348</v>
+      </c>
+      <c r="C197" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="B198" t="s">
+        <v>350</v>
+      </c>
+      <c r="C198" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="B199" t="s">
+        <v>352</v>
+      </c>
+      <c r="C199" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="B200" t="s">
+        <v>354</v>
+      </c>
+      <c r="C200" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="B201" t="s">
+        <v>356</v>
+      </c>
+      <c r="C201" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="B202" t="s">
+        <v>358</v>
+      </c>
+      <c r="C202" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="B203" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="B204" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="B205" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="B208" t="s">
+        <v>275</v>
+      </c>
+      <c r="C208" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="B209" t="s">
+        <v>365</v>
+      </c>
+      <c r="C209" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="B210" t="s">
+        <v>366</v>
+      </c>
+      <c r="C210" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="B211" t="s">
+        <v>368</v>
+      </c>
+      <c r="C211" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="B212" t="s">
+        <v>374</v>
+      </c>
+      <c r="C212" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="B213" t="s">
+        <v>373</v>
+      </c>
+      <c r="C213" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="B214" t="s">
+        <v>370</v>
+      </c>
+      <c r="C214" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" t="s">
+        <v>381</v>
+      </c>
+      <c r="B215" t="s">
+        <v>370</v>
+      </c>
+      <c r="C215" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" t="s">
+        <v>381</v>
+      </c>
+      <c r="B216" t="s">
+        <v>370</v>
+      </c>
+      <c r="C216" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" t="s">
+        <v>381</v>
+      </c>
+      <c r="B217" t="s">
+        <v>370</v>
+      </c>
+      <c r="C217" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="B218" t="s">
+        <v>371</v>
+      </c>
+      <c r="C218" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="B219" t="s">
+        <v>372</v>
+      </c>
+      <c r="C219" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="B220" t="s">
+        <v>372</v>
+      </c>
+      <c r="C220" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="B223" t="s">
+        <v>387</v>
+      </c>
+      <c r="C223" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="B224" t="s">
+        <v>389</v>
+      </c>
+      <c r="C224" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="225" spans="2:3">
+      <c r="B225" t="s">
+        <v>391</v>
+      </c>
+      <c r="C225" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="226" spans="2:3">
+      <c r="B226" t="s">
+        <v>393</v>
+      </c>
+      <c r="C226" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="227" spans="2:3">
+      <c r="B227" t="s">
+        <v>395</v>
+      </c>
+      <c r="C227" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="228" spans="2:3">
+      <c r="B228" t="s">
+        <v>397</v>
+      </c>
+      <c r="C228" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="229" spans="2:3">
+      <c r="B229" t="s">
+        <v>399</v>
+      </c>
+      <c r="C229" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="230" spans="2:3">
+      <c r="B230" t="s">
+        <v>401</v>
+      </c>
+      <c r="C230" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="231" spans="2:3">
+      <c r="B231" t="s">
+        <v>403</v>
+      </c>
+      <c r="C231" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="232" spans="2:3">
+      <c r="B232" t="s">
+        <v>406</v>
+      </c>
+      <c r="C232" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="233" spans="2:3">
+      <c r="B233" t="s">
+        <v>407</v>
+      </c>
+      <c r="C233" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="234" spans="2:3">
+      <c r="B234" t="s">
+        <v>409</v>
+      </c>
+      <c r="C234" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="235" spans="2:3">
+      <c r="B235" t="s">
+        <v>411</v>
+      </c>
+      <c r="C235" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="236" spans="2:3">
+      <c r="B236" t="s">
+        <v>413</v>
+      </c>
+      <c r="C236" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="237" spans="2:3">
+      <c r="B237" t="s">
+        <v>415</v>
+      </c>
+      <c r="C237" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="238" spans="2:3">
+      <c r="B238" t="s">
+        <v>417</v>
+      </c>
+      <c r="C238" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="239" spans="2:3">
+      <c r="B239" t="s">
+        <v>419</v>
+      </c>
+      <c r="C239" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="240" spans="2:3">
+      <c r="B240" t="s">
+        <v>421</v>
+      </c>
+      <c r="C240" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9">
+      <c r="B241" t="s">
+        <v>423</v>
+      </c>
+      <c r="C241" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9">
+      <c r="B242" t="s">
+        <v>425</v>
+      </c>
+      <c r="C242" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9">
+      <c r="B244" t="s">
+        <v>427</v>
+      </c>
+      <c r="C244" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9">
+      <c r="A246" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9">
+      <c r="A247" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9">
+      <c r="A248" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9">
+      <c r="A249" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9">
+      <c r="A250" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9">
+      <c r="A253" t="s">
+        <v>434</v>
+      </c>
+      <c r="D253" t="s">
+        <v>437</v>
+      </c>
+      <c r="E253" t="s">
+        <v>438</v>
+      </c>
+      <c r="F253" t="s">
+        <v>439</v>
+      </c>
+      <c r="G253" t="s">
+        <v>440</v>
+      </c>
+      <c r="H253" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9">
+      <c r="B254" t="s">
+        <v>435</v>
+      </c>
+      <c r="C254" t="s">
+        <v>436</v>
+      </c>
+      <c r="D254">
+        <v>4</v>
+      </c>
+      <c r="I254" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9">
+      <c r="B255" t="s">
+        <v>443</v>
+      </c>
+      <c r="C255" t="s">
+        <v>444</v>
+      </c>
+      <c r="D255">
+        <v>34</v>
+      </c>
+      <c r="I255" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9">
+      <c r="B256" t="s">
+        <v>446</v>
+      </c>
+      <c r="C256" t="s">
+        <v>447</v>
+      </c>
+      <c r="D256">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="257" spans="2:4">
+      <c r="B257" t="s">
+        <v>448</v>
+      </c>
+      <c r="C257" t="s">
+        <v>449</v>
+      </c>
+      <c r="D257">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="258" spans="2:4">
+      <c r="B258" t="s">
+        <v>450</v>
+      </c>
+      <c r="C258" t="s">
+        <v>451</v>
+      </c>
+      <c r="D258">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="259" spans="2:4">
+      <c r="B259" t="s">
+        <v>452</v>
+      </c>
+      <c r="C259" t="s">
+        <v>453</v>
+      </c>
+      <c r="D259">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="260" spans="2:4">
+      <c r="B260" t="s">
+        <v>454</v>
+      </c>
+      <c r="C260" t="s">
+        <v>455</v>
+      </c>
+      <c r="D260">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="261" spans="2:4">
+      <c r="B261" t="s">
+        <v>456</v>
+      </c>
+      <c r="C261" t="s">
+        <v>457</v>
+      </c>
+      <c r="D261">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="262" spans="2:4">
+      <c r="B262" t="s">
+        <v>458</v>
+      </c>
+      <c r="C262" t="s">
+        <v>459</v>
+      </c>
+      <c r="D262">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="263" spans="2:4">
+      <c r="B263" t="s">
+        <v>460</v>
+      </c>
+      <c r="C263" t="s">
+        <v>461</v>
+      </c>
+      <c r="D263">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="264" spans="2:4">
+      <c r="B264" t="s">
+        <v>462</v>
+      </c>
+      <c r="C264" t="s">
+        <v>463</v>
+      </c>
+      <c r="D264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="2:4">
+      <c r="B265" t="s">
+        <v>464</v>
+      </c>
+      <c r="C265" t="s">
+        <v>465</v>
+      </c>
+      <c r="D265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="2:4">
+      <c r="B266" t="s">
+        <v>466</v>
+      </c>
+      <c r="C266" t="s">
+        <v>467</v>
+      </c>
+      <c r="D266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="2:4">
+      <c r="B267" t="s">
+        <v>468</v>
+      </c>
+      <c r="C267" t="s">
+        <v>469</v>
+      </c>
+      <c r="D267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="2:4">
+      <c r="B268" t="s">
+        <v>470</v>
+      </c>
+      <c r="C268" t="s">
+        <v>471</v>
+      </c>
+      <c r="D268">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="269" spans="2:4">
+      <c r="B269" t="s">
+        <v>472</v>
+      </c>
+      <c r="C269" t="s">
+        <v>473</v>
+      </c>
+      <c r="D269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="2:4">
+      <c r="B270" t="s">
+        <v>474</v>
+      </c>
+      <c r="C270" t="s">
+        <v>475</v>
+      </c>
+      <c r="D270">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="271" spans="2:4">
+      <c r="B271" t="s">
+        <v>476</v>
+      </c>
+      <c r="C271" t="s">
+        <v>477</v>
+      </c>
+      <c r="D271">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="272" spans="2:4">
+      <c r="B272" t="s">
+        <v>478</v>
+      </c>
+      <c r="C272" t="s">
+        <v>479</v>
+      </c>
+      <c r="D272">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8">
+      <c r="B273" t="s">
+        <v>480</v>
+      </c>
+      <c r="C273" t="s">
+        <v>481</v>
+      </c>
+      <c r="D273">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8">
+      <c r="B274" t="s">
+        <v>482</v>
+      </c>
+      <c r="C274" t="s">
+        <v>483</v>
+      </c>
+      <c r="D274">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8">
+      <c r="B275" t="s">
+        <v>484</v>
+      </c>
+      <c r="C275" t="s">
+        <v>485</v>
+      </c>
+      <c r="D275">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8">
+      <c r="A277" t="s">
+        <v>486</v>
+      </c>
+      <c r="D277" t="s">
+        <v>487</v>
+      </c>
+      <c r="E277" t="s">
+        <v>488</v>
+      </c>
+      <c r="F277" t="s">
+        <v>489</v>
+      </c>
+      <c r="G277" t="s">
+        <v>490</v>
+      </c>
+      <c r="H277" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8">
+      <c r="B278">
+        <v>1612</v>
+      </c>
+      <c r="C278" t="s">
+        <v>444</v>
+      </c>
+      <c r="D278" t="s">
+        <v>443</v>
+      </c>
+      <c r="E278" t="s">
+        <v>492</v>
+      </c>
+      <c r="F278" t="s">
+        <v>493</v>
+      </c>
+      <c r="G278">
+        <v>16</v>
+      </c>
+      <c r="H278" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8">
+      <c r="B279" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8">
+      <c r="A281" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8">
+      <c r="A283" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8">
+      <c r="A285" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8">
+      <c r="B286" t="s">
+        <v>501</v>
+      </c>
+      <c r="C286" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8">
+      <c r="B287" t="s">
+        <v>324</v>
+      </c>
+      <c r="C287" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8">
+      <c r="B288" t="s">
+        <v>328</v>
+      </c>
+      <c r="C288" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4">
+      <c r="B289" t="s">
+        <v>504</v>
+      </c>
+      <c r="C289" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4">
+      <c r="A291" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4">
+      <c r="A293" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4">
+      <c r="A295" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4">
+      <c r="A297" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4">
+      <c r="B298" t="s">
+        <v>507</v>
+      </c>
+      <c r="C298" t="s">
+        <v>508</v>
+      </c>
+      <c r="D298" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4">
+      <c r="B299" t="s">
+        <v>509</v>
+      </c>
+      <c r="C299" t="s">
+        <v>510</v>
+      </c>
+      <c r="D299" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4">
+      <c r="A301" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4">
+      <c r="B302" t="s">
+        <v>512</v>
+      </c>
+      <c r="C302" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4">
+      <c r="B303" t="s">
+        <v>515</v>
+      </c>
+      <c r="C303" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4">
+      <c r="B304" t="s">
+        <v>516</v>
+      </c>
+      <c r="C304" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5">
+      <c r="B305" t="s">
+        <v>518</v>
+      </c>
+      <c r="C305" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5">
+      <c r="B306" t="s">
+        <v>520</v>
+      </c>
+      <c r="C306" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5">
+      <c r="B307" t="s">
+        <v>522</v>
+      </c>
+      <c r="C307" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5">
+      <c r="B308" t="s">
+        <v>523</v>
+      </c>
+      <c r="C308" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5">
+      <c r="B309" t="s">
+        <v>525</v>
+      </c>
+      <c r="C309" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5">
+      <c r="B310" t="s">
+        <v>527</v>
+      </c>
+      <c r="C310" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5">
+      <c r="B311" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5">
+      <c r="B312" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5">
+      <c r="B313" t="s">
+        <v>531</v>
+      </c>
+      <c r="C313" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5">
+      <c r="B314" t="s">
+        <v>533</v>
+      </c>
+      <c r="C314" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5">
+      <c r="A316" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5">
+      <c r="B317" t="s">
+        <v>536</v>
+      </c>
+      <c r="C317" t="s">
+        <v>537</v>
+      </c>
+      <c r="D317" t="s">
+        <v>538</v>
+      </c>
+      <c r="E317" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5">
+      <c r="B318" t="s">
+        <v>540</v>
+      </c>
+      <c r="C318" t="s">
+        <v>544</v>
+      </c>
+      <c r="D318" t="s">
+        <v>551</v>
+      </c>
+      <c r="E318" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5">
+      <c r="B319" t="s">
+        <v>540</v>
+      </c>
+      <c r="C319" t="s">
+        <v>545</v>
+      </c>
+      <c r="D319" t="s">
+        <v>552</v>
+      </c>
+      <c r="E319" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5">
+      <c r="B320" t="s">
+        <v>540</v>
+      </c>
+      <c r="C320" t="s">
+        <v>546</v>
+      </c>
+      <c r="D320" t="s">
+        <v>541</v>
+      </c>
+      <c r="E320" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="321" spans="2:5">
+      <c r="B321" t="s">
+        <v>541</v>
+      </c>
+      <c r="C321" t="s">
+        <v>547</v>
+      </c>
+      <c r="D321" t="s">
+        <v>541</v>
+      </c>
+      <c r="E321" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="322" spans="2:5">
+      <c r="B322" t="s">
+        <v>542</v>
+      </c>
+      <c r="C322" t="s">
+        <v>548</v>
+      </c>
+      <c r="D322" t="s">
+        <v>542</v>
+      </c>
+      <c r="E322" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="323" spans="2:5">
+      <c r="B323" t="s">
+        <v>542</v>
+      </c>
+      <c r="C323" t="s">
+        <v>549</v>
+      </c>
+      <c r="D323" t="s">
+        <v>541</v>
+      </c>
+      <c r="E323" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="324" spans="2:5">
+      <c r="B324" t="s">
+        <v>543</v>
+      </c>
+      <c r="C324" t="s">
+        <v>548</v>
+      </c>
+      <c r="D324" t="s">
+        <v>543</v>
+      </c>
+      <c r="E324" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="325" spans="2:5">
+      <c r="B325" t="s">
+        <v>543</v>
+      </c>
+      <c r="C325" t="s">
+        <v>550</v>
+      </c>
+      <c r="E325" t="s">
+        <v>558</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C128"/>
+  <sheetViews>
+    <sheetView topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="B128" sqref="A74:B128"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="31.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="B2" t="s">
+        <v>560</v>
+      </c>
+      <c r="C2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" t="s">
+        <v>561</v>
+      </c>
+      <c r="C3" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" t="s">
+        <v>562</v>
+      </c>
+      <c r="C4" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" t="s">
+        <v>563</v>
+      </c>
+      <c r="C5" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" t="s">
+        <v>564</v>
+      </c>
+      <c r="C6" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" t="s">
+        <v>565</v>
+      </c>
+      <c r="C7" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" t="s">
+        <v>566</v>
+      </c>
+      <c r="C8" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" t="s">
+        <v>567</v>
+      </c>
+      <c r="C9" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" t="s">
+        <v>568</v>
+      </c>
+      <c r="C10" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="B11" t="s">
+        <v>569</v>
+      </c>
+      <c r="C11" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="B12" t="s">
+        <v>570</v>
+      </c>
+      <c r="C12" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13" t="s">
+        <v>571</v>
+      </c>
+      <c r="C13" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15" t="s">
+        <v>572</v>
+      </c>
+      <c r="C15" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16" t="s">
+        <v>573</v>
+      </c>
+      <c r="C16" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="B17" t="s">
+        <v>574</v>
+      </c>
+      <c r="C17" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="B18" t="s">
+        <v>575</v>
+      </c>
+      <c r="C18" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="B19" t="s">
+        <v>478</v>
+      </c>
+      <c r="C19" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="B20" t="s">
+        <v>576</v>
+      </c>
+      <c r="C20" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="B21" t="s">
+        <v>577</v>
+      </c>
+      <c r="C21" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="B22" t="s">
+        <v>578</v>
+      </c>
+      <c r="C22" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="B23" t="s">
+        <v>579</v>
+      </c>
+      <c r="C23" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="B26" t="s">
+        <v>603</v>
+      </c>
+      <c r="C26" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="B27" t="s">
+        <v>604</v>
+      </c>
+      <c r="C27" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="B28" t="s">
+        <v>370</v>
+      </c>
+      <c r="C28" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="B29" t="s">
+        <v>605</v>
+      </c>
+      <c r="C29" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="B30" t="s">
+        <v>606</v>
+      </c>
+      <c r="C30" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="B31" t="s">
+        <v>607</v>
+      </c>
+      <c r="C31" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="B32" t="s">
+        <v>507</v>
+      </c>
+      <c r="C32" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="B33" t="s">
+        <v>366</v>
+      </c>
+      <c r="C33" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="B34" t="s">
+        <v>608</v>
+      </c>
+      <c r="C34" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="B35" t="s">
+        <v>609</v>
+      </c>
+      <c r="C35" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="B36" t="s">
+        <v>610</v>
+      </c>
+      <c r="C36" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="B37" t="s">
+        <v>611</v>
+      </c>
+      <c r="C37" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="B40" t="s">
+        <v>622</v>
+      </c>
+      <c r="C40" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="B41" t="s">
+        <v>623</v>
+      </c>
+      <c r="C41" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="B42" t="s">
+        <v>624</v>
+      </c>
+      <c r="C42" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="B43" t="s">
+        <v>604</v>
+      </c>
+      <c r="C43" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="B44" t="s">
+        <v>625</v>
+      </c>
+      <c r="C44" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="B45" t="s">
+        <v>570</v>
+      </c>
+      <c r="C45" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="B46" t="s">
+        <v>572</v>
+      </c>
+      <c r="C46" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="B47" t="s">
+        <v>626</v>
+      </c>
+      <c r="C47" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="B48" t="s">
+        <v>507</v>
+      </c>
+      <c r="C48" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="B49" t="s">
+        <v>627</v>
+      </c>
+      <c r="C49" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="B50" t="s">
+        <v>628</v>
+      </c>
+      <c r="C50" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="B51" t="s">
+        <v>629</v>
+      </c>
+      <c r="C51" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="B52" t="s">
+        <v>630</v>
+      </c>
+      <c r="C52" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="B53" t="s">
+        <v>631</v>
+      </c>
+      <c r="C53" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="B54" t="s">
+        <v>578</v>
+      </c>
+      <c r="C54" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="B58" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="B59" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="B60" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="B61" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="B62" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="B63" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="B64" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="B65" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="B66" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="B67" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="B68" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="B69" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="B70" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="B71" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="B75" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="B76" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="B77" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="B78" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="B79" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="B80" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2">
+      <c r="B85" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2">
+      <c r="B86" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2">
+      <c r="B87" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2">
+      <c r="B88" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2">
+      <c r="B89" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2">
+      <c r="B90" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2">
+      <c r="B91" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2">
+      <c r="B92" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2">
+      <c r="B93" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2">
+      <c r="B94" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2">
+      <c r="B95" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2">
+      <c r="B96" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2">
+      <c r="B97" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2">
+      <c r="B98" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2">
+      <c r="B99" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2">
+      <c r="B100" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2">
+      <c r="B101" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2">
+      <c r="B102" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2">
+      <c r="B103" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2">
+      <c r="B104" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2">
+      <c r="B105" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2">
+      <c r="B106" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2">
+      <c r="B107" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2">
+      <c r="B108" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2">
+      <c r="B109" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2">
+      <c r="B110" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2">
+      <c r="B111" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2">
+      <c r="B112" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2">
+      <c r="B113" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2">
+      <c r="B114" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2">
+      <c r="B115" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2">
+      <c r="B116" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2">
+      <c r="B117" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2">
+      <c r="B118" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2">
+      <c r="B119" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2">
+      <c r="B120" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2">
+      <c r="B121" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2">
+      <c r="B122" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2">
+      <c r="B123" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2">
+      <c r="B124" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2">
+      <c r="B125" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2">
+      <c r="B126" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2">
+      <c r="B127" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2">
+      <c r="B128" t="s">
+        <v>711</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A1:B55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="33.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="B2" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="B3" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="B4" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="B9" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="B12" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="B13" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="B14" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="B15" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="B16" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" t="s">
+        <v>711</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
